--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_106.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,178 +488,194 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1004464285714286</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['C/3', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:01:01.597865', '0:01:06.393832')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:18.877585', '0:00:24.470647')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(43.26, 45.66)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[('0:00:09.700000', '0:00:15.020000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:36.200000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[('0:01:23.760000', '0:01:32.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:48.540000', '0:02:00.720000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -663,403 +684,408 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(116.7, 122.32)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:01:27.200000', '0:01:37.220000'), ('0:00:41.380000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:28.140000', '0:00:36.100000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -1068,43 +1094,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
@@ -1113,92 +1144,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(15.84, 18.66)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(66.1, 84.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(101.06, 102.38)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
